--- a/PrecioFrutaHortalizas/Diccionario.xlsx
+++ b/PrecioFrutaHortalizas/Diccionario.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Mercado" sheetId="1" r:id="rId1"/>
@@ -1139,12 +1139,12 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="45.7109375" customWidth="1"/>
+    <col min="1" max="3" width="45.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1155,7 +1155,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1166,7 +1166,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -1243,7 +1243,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -1265,7 +1265,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -1276,7 +1276,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -1303,9 +1303,9 @@
       <selection sqref="A1:B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -1313,7 +1313,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1329,7 +1329,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1337,7 +1337,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1345,7 +1345,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1353,7 +1353,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1361,7 +1361,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1369,7 +1369,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1385,7 +1385,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1401,7 +1401,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1425,13 +1425,13 @@
       <selection sqref="A1:B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>40</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>42</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>43</v>
       </c>
@@ -1471,7 +1471,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>47</v>
       </c>
@@ -1479,7 +1479,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>48</v>
       </c>
@@ -1487,7 +1487,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>50</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>52</v>
       </c>
@@ -1511,7 +1511,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>54</v>
       </c>
@@ -1519,7 +1519,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>55</v>
       </c>
@@ -1527,7 +1527,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>57</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>58</v>
       </c>
@@ -1543,7 +1543,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>59</v>
       </c>
@@ -1551,7 +1551,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>60</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>62</v>
       </c>
@@ -1567,7 +1567,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>63</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>64</v>
       </c>
@@ -1583,7 +1583,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>65</v>
       </c>
@@ -1591,7 +1591,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>66</v>
       </c>
@@ -1599,7 +1599,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>67</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>68</v>
       </c>
@@ -1615,7 +1615,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>69</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>70</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>71</v>
       </c>
@@ -1639,7 +1639,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>72</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>73</v>
       </c>
@@ -1655,7 +1655,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>74</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>75</v>
       </c>
@@ -1671,7 +1671,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>76</v>
       </c>
@@ -1679,7 +1679,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>77</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>78</v>
       </c>
@@ -1695,7 +1695,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>79</v>
       </c>
@@ -1703,7 +1703,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>80</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>81</v>
       </c>
@@ -1731,14 +1731,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="A116" sqref="A116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="52.5703125" customWidth="1"/>
-    <col min="2" max="2" width="34.42578125" customWidth="1"/>
+    <col min="1" max="1" width="52.5546875" customWidth="1"/>
+    <col min="2" max="2" width="34.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -1939,7 +1939,7 @@
         <v>107</v>
       </c>
       <c r="B25">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -1979,7 +1979,7 @@
         <v>112</v>
       </c>
       <c r="B30">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -2083,7 +2083,7 @@
         <v>125</v>
       </c>
       <c r="B43">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
